--- a/Projects/PNGAMERICA/Data/golden_shelves.xlsx
+++ b/Projects/PNGAMERICA/Data/golden_shelves.xlsx
@@ -5,10 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="default" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ORAL CARE" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="FABRICARE" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="FEM CARE" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="AI" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="22">
   <si>
     <t>num. of shelves min</t>
   </si>
@@ -32,6 +36,60 @@
   </si>
   <si>
     <t>num. ignored from bottom</t>
+  </si>
+  <si>
+    <t>retailer</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>sub_category</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>FEM CARE</t>
+  </si>
+  <si>
+    <t>Tampons</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>Alb/sfy</t>
+  </si>
+  <si>
+    <t>Delhaize</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Meijer</t>
+  </si>
+  <si>
+    <t>Shoprite</t>
+  </si>
+  <si>
+    <t>Wegman</t>
+  </si>
+  <si>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>Rite aid </t>
+  </si>
+  <si>
+    <t>Walgreens</t>
+  </si>
+  <si>
+    <t>Pads</t>
+  </si>
+  <si>
+    <t>Liners</t>
   </si>
 </sst>
 </file>
@@ -41,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -63,6 +121,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,13 +172,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -135,16 +208,16 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -217,6 +290,1222 @@
       <c r="D5" s="0" t="n">
         <v>3</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9311740890688"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9311740890688"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.165991902834"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.0971659919028"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.4089068825911"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.165991902834"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0971659919028"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.4089068825911"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
